--- a/Documents/3. Product Backlog/C1SE.06_CVPMS_ProductBacklog-Userstory-SprintBacklog.xlsx
+++ b/Documents/3. Product Backlog/C1SE.06_CVPMS_ProductBacklog-Userstory-SprintBacklog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casca\Desktop\Capstone_1\SourceCode\craft-village-pollution-monitor-system\Documents\3. Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC536B11-D6CC-493A-903D-471F4CA8DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E79A919-B4DA-4070-8A12-28A15BFFD82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="780" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="780" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="413">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -1521,12 +1521,6 @@
     <t>I struggling to understand how to use the API and would like someone to help me out</t>
   </si>
   <si>
-    <t>Let daily meeting become discussions. Keep them short</t>
-  </si>
-  <si>
-    <t>Attend meeting on time</t>
-  </si>
-  <si>
     <t>View finished/in progess survey</t>
   </si>
   <si>
@@ -1534,6 +1528,48 @@
   </si>
   <si>
     <t>[AI] Research Multi-Label Classification Machine Learning</t>
+  </si>
+  <si>
+    <t>Let daily meeting become discussions. Keep them short.</t>
+  </si>
+  <si>
+    <t>Having conversations via email and not in the task.</t>
+  </si>
+  <si>
+    <t>Attend meeting on time.</t>
+  </si>
+  <si>
+    <t>We completed the user stories we set out to do.</t>
+  </si>
+  <si>
+    <t>We didn't finish all the user stories.</t>
+  </si>
+  <si>
+    <t>We should start doing individual code reviews as we go.</t>
+  </si>
+  <si>
+    <t>We should increase the amount we communicate as a team.</t>
+  </si>
+  <si>
+    <t>We were able to demo a working product to the mentor.</t>
+  </si>
+  <si>
+    <t>We should continue having regular demos with the mentor.</t>
+  </si>
+  <si>
+    <t>Collect mentor feedback on new features.</t>
+  </si>
+  <si>
+    <t>Going through the entire Bug log.</t>
+  </si>
+  <si>
+    <t>We should continue working as a team.</t>
+  </si>
+  <si>
+    <t>Review stories with mentor before implementation.</t>
+  </si>
+  <si>
+    <t>Great teamwork.</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1850,11 +1886,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2104,6 +2155,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7692,15 +7761,15 @@
       <c r="F3" s="61"/>
       <c r="G3" s="37"/>
       <c r="H3" s="1"/>
-      <c r="M3" s="94"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E4" s="61"/>
       <c r="F4" s="61"/>
       <c r="G4" s="37"/>
       <c r="H4" s="1"/>
-      <c r="J4" s="97"/>
-      <c r="M4" s="95"/>
+      <c r="J4" s="103"/>
+      <c r="M4" s="101"/>
     </row>
     <row r="5" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
@@ -7710,9 +7779,9 @@
       <c r="F5" s="61"/>
       <c r="G5" s="37"/>
       <c r="H5" s="1"/>
-      <c r="J5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="O5" s="97"/>
+      <c r="J5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="O5" s="103"/>
     </row>
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="41"/>
@@ -7723,12 +7792,12 @@
       <c r="G6" s="43"/>
       <c r="H6" s="42"/>
       <c r="I6" s="41"/>
-      <c r="J6" s="96"/>
+      <c r="J6" s="102"/>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="96"/>
+      <c r="M6" s="102"/>
       <c r="N6" s="41"/>
-      <c r="O6" s="96"/>
+      <c r="O6" s="102"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="75"/>
       <c r="R6" s="41"/>
@@ -8227,13 +8296,13 @@
         <v>34</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D19" s="48" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F19" s="60" t="s">
         <v>159</v>
@@ -15256,103 +15325,103 @@
     <row r="2" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="106" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
-      <c r="H3" s="100"/>
-      <c r="K3" s="100" t="s">
+      <c r="H3" s="106"/>
+      <c r="K3" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100" t="s">
+      <c r="H4" s="106"/>
+      <c r="I4" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
     </row>
     <row r="5" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="105" t="s">
+      <c r="C5" s="101"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
     </row>
     <row r="6" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16"/>
       <c r="C6" s="15"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
     </row>
     <row r="7" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
@@ -21594,10 +21663,10 @@
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="120" t="s">
         <v>89</v>
       </c>
       <c r="J5" s="31"/>
@@ -21610,8 +21679,8 @@
       </c>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="31"/>
       <c r="K6" s="15" t="s">
         <v>90</v>
@@ -23191,8 +23260,8 @@
   </sheetPr>
   <dimension ref="B1:I998"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23209,347 +23278,455 @@
     <row r="1" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="121" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="95"/>
+      <c r="F4" s="101"/>
     </row>
     <row r="5" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B5" s="33" t="s">
         <v>97</v>
       </c>
       <c r="C5" s="33"/>
-      <c r="F5" s="95"/>
+      <c r="F5" s="101"/>
     </row>
     <row r="6" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="95"/>
+      <c r="F6" s="101"/>
     </row>
     <row r="7" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
     </row>
     <row r="8" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
     <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="89" t="s">
+      <c r="I9" s="95" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="87">
+      <c r="B10" s="94">
         <v>1</v>
       </c>
-      <c r="C10" s="87">
+      <c r="C10" s="94">
+        <v>2</v>
+      </c>
+      <c r="D10" s="96"/>
+      <c r="E10" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="96" t="s">
+        <v>399</v>
+      </c>
+      <c r="I10" s="98"/>
+    </row>
+    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="94">
         <v>1</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90" t="s">
-        <v>397</v>
-      </c>
-      <c r="H10" s="90" t="s">
-        <v>396</v>
-      </c>
-      <c r="I10" s="90"/>
-    </row>
-    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
+      <c r="C11" s="94">
+        <v>2</v>
+      </c>
+      <c r="D11" s="96"/>
+      <c r="E11" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96" t="s">
+        <v>400</v>
+      </c>
+      <c r="I11" s="98"/>
     </row>
     <row r="12" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
+      <c r="B12" s="94">
+        <v>1</v>
+      </c>
+      <c r="C12" s="94">
+        <v>2</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96" t="s">
+        <v>401</v>
+      </c>
+      <c r="H12" s="96"/>
+      <c r="I12" s="98"/>
     </row>
     <row r="13" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
+      <c r="B13" s="94">
+        <v>2</v>
+      </c>
+      <c r="C13" s="94">
+        <v>3</v>
+      </c>
+      <c r="D13" s="96"/>
+      <c r="E13" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="96" t="s">
+        <v>402</v>
+      </c>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="98"/>
     </row>
     <row r="14" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
+      <c r="B14" s="94">
+        <v>2</v>
+      </c>
+      <c r="C14" s="94">
+        <v>3</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="I14" s="98"/>
     </row>
     <row r="15" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
+      <c r="B15" s="94">
+        <v>2</v>
+      </c>
+      <c r="C15" s="94">
+        <v>3</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="96" t="s">
+        <v>404</v>
+      </c>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="98"/>
     </row>
     <row r="16" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
+      <c r="B16" s="94">
+        <v>2</v>
+      </c>
+      <c r="C16" s="94">
+        <v>3</v>
+      </c>
+      <c r="D16" s="96"/>
+      <c r="E16" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="H16" s="96"/>
+      <c r="I16" s="98"/>
     </row>
     <row r="17" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
+      <c r="B17" s="94">
+        <v>3</v>
+      </c>
+      <c r="C17" s="94">
+        <v>4</v>
+      </c>
+      <c r="D17" s="96"/>
+      <c r="E17" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="96" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="98"/>
     </row>
     <row r="18" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
+      <c r="B18" s="94">
+        <v>3</v>
+      </c>
+      <c r="C18" s="94">
+        <v>4</v>
+      </c>
+      <c r="D18" s="96"/>
+      <c r="E18" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96" t="s">
+        <v>407</v>
+      </c>
+      <c r="H18" s="96"/>
+      <c r="I18" s="98"/>
     </row>
     <row r="19" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
+      <c r="B19" s="94">
+        <v>3</v>
+      </c>
+      <c r="C19" s="94">
+        <v>4</v>
+      </c>
+      <c r="D19" s="96"/>
+      <c r="E19" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="98"/>
     </row>
     <row r="20" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
+      <c r="B20" s="94">
+        <v>3</v>
+      </c>
+      <c r="C20" s="94">
+        <v>4</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="96" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="98"/>
     </row>
     <row r="21" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
+      <c r="B21" s="94">
+        <v>3</v>
+      </c>
+      <c r="C21" s="94">
+        <v>4</v>
+      </c>
+      <c r="D21" s="96"/>
+      <c r="E21" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="H21" s="96"/>
+      <c r="I21" s="98"/>
     </row>
     <row r="22" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
+      <c r="B22" s="94">
+        <v>3</v>
+      </c>
+      <c r="C22" s="94">
+        <v>4</v>
+      </c>
+      <c r="D22" s="96"/>
+      <c r="E22" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="98"/>
     </row>
     <row r="23" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
+      <c r="B23" s="94">
+        <v>4</v>
+      </c>
+      <c r="C23" s="94">
+        <v>5</v>
+      </c>
+      <c r="D23" s="96"/>
+      <c r="E23" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96" t="s">
+        <v>412</v>
+      </c>
+      <c r="H23" s="96"/>
+      <c r="I23" s="98"/>
     </row>
     <row r="24" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
     </row>
     <row r="26" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
     </row>
     <row r="27" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
     </row>
     <row r="28" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
     </row>
     <row r="29" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
     </row>
     <row r="30" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
     </row>
     <row r="31" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
     </row>
     <row r="32" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
     </row>
     <row r="33" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
     </row>
     <row r="34" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
     </row>
     <row r="35" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
     </row>
     <row r="36" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24521,8 +24698,8 @@
     <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25712,7 +25889,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27122,103 +27299,103 @@
     <row r="2" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="76"/>
       <c r="C2" s="15"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="106" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="76"/>
       <c r="C3" s="15"/>
-      <c r="H3" s="100"/>
-      <c r="K3" s="100" t="s">
+      <c r="H3" s="106"/>
+      <c r="K3" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="76"/>
       <c r="C4" s="15"/>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100" t="s">
+      <c r="H4" s="106"/>
+      <c r="I4" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
     </row>
     <row r="5" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="105" t="s">
+      <c r="C5" s="101"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
     </row>
     <row r="6" spans="2:25" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="77"/>
       <c r="C6" s="15"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
     </row>
     <row r="7" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="78" t="s">
@@ -32347,7 +32524,7 @@
   <dimension ref="B1:O1000"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33405,103 +33582,103 @@
     <row r="2" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="106" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
-      <c r="H3" s="100"/>
-      <c r="K3" s="100" t="s">
+      <c r="H3" s="106"/>
+      <c r="K3" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100" t="s">
+      <c r="H4" s="106"/>
+      <c r="I4" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
     </row>
     <row r="5" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="105" t="s">
+      <c r="C5" s="101"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
     </row>
     <row r="6" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16"/>
       <c r="C6" s="15"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
     </row>
     <row r="7" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
@@ -40385,103 +40562,103 @@
     <row r="2" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="106" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
-      <c r="H3" s="100"/>
-      <c r="K3" s="100" t="s">
+      <c r="H3" s="106"/>
+      <c r="K3" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100" t="s">
+      <c r="H4" s="106"/>
+      <c r="I4" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
     </row>
     <row r="5" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="105" t="s">
+      <c r="C5" s="101"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
     </row>
     <row r="6" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16"/>
       <c r="C6" s="15"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
     </row>
     <row r="7" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
@@ -46793,7 +46970,7 @@
   </sheetPr>
   <dimension ref="B1:Y992"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -46817,103 +46994,103 @@
     <row r="2" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="106" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="14"/>
       <c r="C3" s="15"/>
-      <c r="H3" s="100"/>
-      <c r="K3" s="100" t="s">
+      <c r="H3" s="106"/>
+      <c r="K3" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100" t="s">
+      <c r="H4" s="106"/>
+      <c r="I4" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="110" t="s">
+      <c r="J4" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="98"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
     </row>
     <row r="5" spans="2:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="105" t="s">
+      <c r="C5" s="101"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="108"/>
-      <c r="J5" s="110"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
     </row>
     <row r="6" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16"/>
       <c r="C6" s="15"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="105"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
     </row>
     <row r="7" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
@@ -47545,7 +47722,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>123</v>
